--- a/Submission/SportsInviter/Data/Input/423 Spartans/PlayerDetails.xlsx
+++ b/Submission/SportsInviter/Data/Input/423 Spartans/PlayerDetails.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A21603-6D2B-40A4-B5B2-DEF804058740}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335806A4-59E3-4AE0-864D-9DAC2D78C8CB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="1995" windowWidth="11550" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -65,50 +65,53 @@
     <t>Abi</t>
   </si>
   <si>
-    <t>aruncyclopse007@gmail.com</t>
-  </si>
-  <si>
-    <t>1234  Homewood Dr, Coppell TX, 75034</t>
-  </si>
-  <si>
-    <t>1234  Breeze Bay pt, Fort Worth 761232</t>
-  </si>
-  <si>
     <t>1234 Escena blvd, Irving TX 75037</t>
   </si>
   <si>
-    <t>1234  Breeze Bay Pt, Fort Worth 75037</t>
-  </si>
-  <si>
-    <t>1234 presidio vista dr fort worth tx 75037</t>
-  </si>
-  <si>
-    <t>1234  McFarland way ,Fort worth TX 75037</t>
-  </si>
-  <si>
-    <t>1234 Remington Ridge, Fort Worth,TX 75037</t>
-  </si>
-  <si>
-    <t>1234  W Valley Ranch Pkwy, Irving, TX 75037</t>
-  </si>
-  <si>
-    <t>1234  hwy 360 euless tx 75037</t>
-  </si>
-  <si>
-    <t>1234  Breeze Bay pt, Fort Worth 75037</t>
-  </si>
-  <si>
-    <t>1234  Homewood Dr, Coppell TX, 75037</t>
-  </si>
-  <si>
-    <t>1234 Commons Way, Prosper, TX 75078</t>
+    <t>XXX@gmail.com</t>
+  </si>
+  <si>
+    <t>1235 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1236 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1237 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1238 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1239 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1240 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1241 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1242 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1243 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1244 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1245 Escena blvd, Irving TX 75037</t>
+  </si>
+  <si>
+    <t>1246 Escena blvd, Irving TX 75037</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +131,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,7 +533,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,10 +559,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,10 +570,10 @@
         <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,10 +592,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,10 +603,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,10 +614,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,10 +625,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,10 +636,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,10 +647,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,10 +658,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -660,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,10 +680,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,16 +691,17 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{17704D96-D995-4992-B596-7BA1A34E29EF}"/>
-    <hyperlink ref="B3:B14" r:id="rId2" display="aruncyclopse007@gmail.com" xr:uid="{65958DEF-736F-4A19-BDE5-4ED6DFD11D32}"/>
+    <hyperlink ref="B3:B14" r:id="rId2" display="XXX@gmail.com" xr:uid="{8EA430A8-6ED2-4668-9701-C86ACE80E34E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
